--- a/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
+++ b/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>5.725677283246958</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>-0.1138270110700734</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01678756918276458</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.053487084533311</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.298063698297935</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +906,18 @@
       <c r="H13" t="n">
         <v>9.952175328699088</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>-0.08943813976169483</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01696372620412041</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.2880759216279744</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.14521553204206</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +948,18 @@
       <c r="H14" t="n">
         <v>5.887377683849195</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>-0.02189067404115775</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.04191629749799171</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6704757719610467</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.815473210689341</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,10 +1026,18 @@
       <c r="H16" t="n">
         <v>15.13411246037325</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0.03408971441573483</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.05861338755323488</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4399583757458075</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.992906231796149</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1078,10 +1110,18 @@
       <c r="H18" t="n">
         <v>6.835166303708448</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.09378818548282215</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.08061204851819169</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3553474179588729</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.795346708229094</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
+++ b/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
@@ -578,19 +578,19 @@
         <v>0.2356164383561644</v>
       </c>
       <c r="D4" t="n">
-        <v>114395.1461954141</v>
+        <v>114368.1503112149</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003482543173528085</v>
+        <v>0.002260488759696372</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1817254057813461</v>
+        <v>0.186656093602205</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5394106168636683</v>
+        <v>-0.7238848619988547</v>
       </c>
       <c r="H4" t="n">
-        <v>5.825879463951512</v>
+        <v>7.132001242965023</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -612,19 +612,19 @@
         <v>0.3123287671232877</v>
       </c>
       <c r="D5" t="n">
-        <v>115018.1415541562</v>
+        <v>115016.9714831865</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00695598693064586</v>
+        <v>-0.007010970750948553</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2214910470781146</v>
+        <v>0.2217666072818137</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.271928310892101</v>
+        <v>-1.282494831271531</v>
       </c>
       <c r="H5" t="n">
-        <v>10.23137569421016</v>
+        <v>10.34510309377354</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -680,19 +680,19 @@
         <v>0.4849315068493151</v>
       </c>
       <c r="D7" t="n">
-        <v>116315.8542476986</v>
+        <v>116336.8180687226</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01407760093688102</v>
+        <v>-0.01240109208217384</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2063520670221113</v>
+        <v>0.1994258169348565</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3799389916205135</v>
+        <v>-0.2084160145127783</v>
       </c>
       <c r="H7" t="n">
-        <v>4.911529226161563</v>
+        <v>4.205177023942746</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.810958904109589</v>
       </c>
       <c r="D9" t="n">
-        <v>118284.1857908773</v>
+        <v>118310.5241376469</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.05790759291044427</v>
+        <v>-0.05397337747656664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3329101344999462</v>
+        <v>0.306348362242314</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.121130793137533</v>
+        <v>-1.58321860560162</v>
       </c>
       <c r="H9" t="n">
-        <v>14.91094071118173</v>
+        <v>10.08824214273261</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.06027397260274</v>
       </c>
       <c r="D10" t="n">
-        <v>119715.1391956368</v>
+        <v>119711.8788105291</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1033574627504499</v>
+        <v>-0.1036865728320462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4340012653109135</v>
+        <v>0.4361538836730957</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.848530290631657</v>
+        <v>-1.874611108904448</v>
       </c>
       <c r="H10" t="n">
-        <v>9.310451148502041</v>
+        <v>9.535701972788869</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -892,19 +892,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D13" t="n">
-        <v>112825.2793255278</v>
+        <v>112832.2978030683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05905308614769373</v>
+        <v>0.05976886482868678</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1436949503858919</v>
+        <v>0.1393504333835252</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.8810267864511313</v>
+        <v>-0.5297588083094721</v>
       </c>
       <c r="H13" t="n">
-        <v>9.952175328699088</v>
+        <v>5.977643132738889</v>
       </c>
       <c r="I13" t="n">
         <v>-0.08943813976169483</v>
@@ -1012,19 +1012,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D16" t="n">
-        <v>112796.1097410079</v>
+        <v>112895.7243909183</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04415299662623077</v>
+        <v>0.05224065531551625</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1816808439934367</v>
+        <v>0.1481421723777032</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.623904241034051</v>
+        <v>-0.1969194871440355</v>
       </c>
       <c r="H16" t="n">
-        <v>15.13411246037325</v>
+        <v>4.405082358658083</v>
       </c>
       <c r="I16" t="n">
         <v>0.03408971441573483</v>

--- a/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
+++ b/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>7.252800848669408</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.3079345638846112</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1413765329913504</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2799462170697564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.067279949122905</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>5.95041994999684</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.3489984000983575</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1383884161407324</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.263315921266713</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.850542134809331</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
+++ b/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>42.70468449013802</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.349748557851123</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2242144557103363</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1948034178860719</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.540403574172122</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
+++ b/data_processed/20250903/BTCUSDQMOMENT_20250903.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>8.751427601134663</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.332436778392457</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5367335221490712</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6074970978651285</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.87981202521023</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
